--- a/public/ticketPriceMCS.xlsx
+++ b/public/ticketPriceMCS.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Z14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/ticketPriceMCS.xlsx
+++ b/public/ticketPriceMCS.xlsx
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
